--- a/src/main/resources/excel/ejemplo3.xlsx
+++ b/src/main/resources/excel/ejemplo3.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="hojaejemplo1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="hojaejemplo2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="hojaejemplo3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="hojaejemplo3.1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="hojaejemplo3.2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="hojaejemplo3.3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -111,8 +111,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,25 +143,25 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -183,30 +187,30 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -232,15 +236,15 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/excel/ejemplo3.xlsx
+++ b/src/main/resources/excel/ejemplo3.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="hojaejemplo3.1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="hojaejemplo3.2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="hojaejemplo3.3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="hojaejemplo31" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="hojaejemplo32" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="hojaejemplo33" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -140,10 +140,10 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="B1:B2 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -184,10 +184,10 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="B1:B2 A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -230,21 +230,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/excel/ejemplo3.xlsx
+++ b/src/main/resources/excel/ejemplo3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hojaejemplo31" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -137,31 +137,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="B1:B2 A5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -181,36 +193,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="B1:B2 A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -232,11 +259,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/src/main/resources/excel/ejemplo3.xlsx
+++ b/src/main/resources/excel/ejemplo3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hojaejemplo31" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,21 +22,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e2</t>
   </si>
 </sst>
 </file>
@@ -140,10 +146,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -195,11 +201,11 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -219,26 +225,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -259,11 +265,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/src/main/resources/excel/ejemplo3.xlsx
+++ b/src/main/resources/excel/ejemplo3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t xml:space="preserve">a2</t>
   </si>
@@ -30,19 +30,25 @@
     <t xml:space="preserve">b2</t>
   </si>
   <si>
-    <t xml:space="preserve">c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d4</t>
-  </si>
-  <si>
     <t xml:space="preserve">c2</t>
   </si>
   <si>
     <t xml:space="preserve">d2</t>
   </si>
   <si>
-    <t xml:space="preserve">e2</t>
+    <t xml:space="preserve">a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7</t>
   </si>
 </sst>
 </file>
@@ -146,10 +152,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -202,49 +208,49 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -266,25 +272,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/ejemplo3.xlsx
+++ b/src/main/resources/excel/ejemplo3.xlsx
@@ -22,33 +22,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t xml:space="preserve">a2</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence31 – 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">b2</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence31 – 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion2</t>
+  </si>
+  <si>
     <t xml:space="preserve">c2</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence31 – 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">d2</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence31 – 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion4</t>
+  </si>
+  <si>
     <t xml:space="preserve">a3</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence32 – 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">a4</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence32 – 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">a5</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence32 – 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">a6</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence32 – 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence33 – 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence33 – 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence33 – 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence33 – 4</t>
   </si>
 </sst>
 </file>
@@ -149,13 +203,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.85"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -164,29 +221,65 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -205,52 +298,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.2"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -269,28 +401,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.96"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
